--- a/DataBase/Aprendendo.xlsx
+++ b/DataBase/Aprendendo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faell\OneDrive\Documentos\GitHub\EnglishBot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faell\OneDrive\Documentos\GitHub\EnglishBot\DataBase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440EB75F-A96F-4170-9B13-47D355D472E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB294F1-FF7B-4867-9DC3-3B64A4B5421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D471F43C-4ACE-4E09-8D25-8F9F710D45A5}"/>
+    <workbookView xWindow="-23430" yWindow="255" windowWidth="21600" windowHeight="11295" xr2:uid="{D471F43C-4ACE-4E09-8D25-8F9F710D45A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Numeros" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>seven</t>
   </si>
   <si>
-    <t>eigth</t>
-  </si>
-  <si>
     <t>nine</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>three</t>
+  </si>
+  <si>
+    <t>eight</t>
   </si>
   <si>
     <t>Os números em inglês possuem uma regra básica para sua formação. Até o vigésimo número(20) possuem um nome 'fixo', como visto abaixo:
@@ -140,7 +140,7 @@
 5 - Five
 6 - Six
 7 - Seven
-8 - Eigth
+8 - Eight
 9 - Nine
 10 - Ten
 11 - Eleven
@@ -150,7 +150,7 @@
 15 - Fifteen
 16 - Sixteen
 17 - Seventeen
-18 - Eigthteen
+18 - Eighteen
 19 - Nineteen
 20 - Twenty
 A partir no número 20, os outros são formados com base nos 20 primeiro, mudando somente a dezena, exemplo:
@@ -162,7 +162,7 @@
 50 - Fifty
 60 - Sixty
 70 - Seventy
-80 - Eigthty
+80 - Eighty
 90 - Ninety
 Do número 100 até o número 999 segue quase a mesma regra, porém adicionando algumas coisas.
 As centenas são construídas seguindo o padrão: 
@@ -564,8 +564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CADAD5F3-41A3-4E88-80DD-A3EC125A2FC6}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -586,7 +586,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -596,7 +596,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -621,112 +621,112 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
